--- a/Notes 2DAM.xlsx
+++ b/Notes 2DAM.xlsx
@@ -10,61 +10,28 @@
   <definedNames>
     <definedName localSheetId="1" name="Pelis">#REF!</definedName>
     <definedName localSheetId="2" name="Pelis">Finals!$B$3:$B$8</definedName>
-    <definedName name="Pelis">Examens!$B$3:$B$9</definedName>
+    <definedName name="Pelis">#REF!</definedName>
     <definedName localSheetId="1" name="Dates">Treballs!$B$2:$B$5</definedName>
     <definedName localSheetId="2" name="Ticks">#REF!</definedName>
     <definedName localSheetId="1" name="Ticks">#REF!</definedName>
     <definedName name="Ticks">#REF!</definedName>
     <definedName localSheetId="2" name="Dates">Finals!$E$3:$E$8</definedName>
-    <definedName name="Dates">Examens!$L$3:$L$9</definedName>
+    <definedName name="Dates">Examens!$B$3:$B$9</definedName>
   </definedNames>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="12">
   <si>
     <t>Assignatura</t>
   </si>
   <si>
-    <t>Unitats</t>
-  </si>
-  <si>
     <t>Nota</t>
   </si>
   <si>
     <t>Fecha</t>
-  </si>
-  <si>
-    <t>U01</t>
-  </si>
-  <si>
-    <t>U02</t>
-  </si>
-  <si>
-    <t>U03</t>
-  </si>
-  <si>
-    <t>U04</t>
-  </si>
-  <si>
-    <t>U05</t>
-  </si>
-  <si>
-    <t>U06</t>
-  </si>
-  <si>
-    <t>U07</t>
-  </si>
-  <si>
-    <t>U08</t>
-  </si>
-  <si>
-    <t>U09</t>
-  </si>
-  <si>
-    <t>U10</t>
   </si>
   <si>
     <t>Multimèdia</t>
@@ -147,17 +114,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="9">
     <border/>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -179,17 +141,6 @@
       </bottom>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -204,7 +155,26 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
     </border>
@@ -215,32 +185,7 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thick">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thick">
         <color rgb="FF000000"/>
       </bottom>
     </border>
@@ -248,90 +193,75 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="26">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
+    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="3" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="4" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="5" fillId="2" fontId="3" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="5" fillId="2" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="3" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="3" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="5" fillId="2" fontId="3" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="6" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="2" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="4" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="5" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="6" fillId="3" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="7" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="7" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="7" fillId="2" fontId="3" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="8" fillId="2" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="8" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="8" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="8" fillId="3" fontId="3" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="8" fillId="3" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="2" fillId="2" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="7" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="8" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="8" fillId="2" fontId="3" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="8" fillId="2" fontId="3" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="8" fillId="2" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="10" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="4" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="7" fillId="2" fontId="3" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="8" fillId="3" fontId="3" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="5" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="8" fillId="2" fontId="3" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="3" fontId="3" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="5" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="3" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="5" fillId="2" fontId="3" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="3" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -439,7 +369,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A1:B5" displayName="Table_1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="A1:B7" displayName="Table_1" id="1">
   <tableColumns count="2">
     <tableColumn name="Column1" id="1"/>
     <tableColumn name="Column2" id="2"/>
@@ -655,377 +585,166 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="25.13"/>
-    <col customWidth="1" min="2" max="12" width="8.88"/>
-    <col customWidth="1" min="13" max="13" width="15.13"/>
+    <col customWidth="1" min="2" max="2" width="8.88"/>
+    <col customWidth="1" min="3" max="3" width="15.13"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="4" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6" t="s">
+      <c r="B3" s="6">
+        <v>7.5</v>
+      </c>
+      <c r="C3" s="7">
+        <v>44860.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="B4" s="9">
+        <v>8.58</v>
+      </c>
+      <c r="C4" s="10">
+        <v>44872.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="B5" s="6">
+        <v>9.4</v>
+      </c>
+      <c r="C5" s="7">
+        <v>44882.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="B6" s="9">
+        <v>6.9</v>
+      </c>
+      <c r="C6" s="10">
+        <v>44883.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="6">
+        <v>9.0</v>
+      </c>
+      <c r="C7" s="7">
+        <v>44886.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="C3" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" s="9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="K3" s="9" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" s="10">
-        <v>7.5</v>
-      </c>
-      <c r="M3" s="11">
-        <v>44860.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="C4" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="D4" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="K4" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" s="14">
-        <v>8.58</v>
-      </c>
-      <c r="M4" s="15">
-        <v>44872.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="C5" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I5" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="K5" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" s="18">
-        <v>9.4</v>
-      </c>
-      <c r="M5" s="11">
-        <v>44882.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="C6" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="D6" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="F6" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="K6" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="L6" s="14">
-        <v>6.9</v>
-      </c>
-      <c r="M6" s="15">
-        <v>44883.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="C7" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" s="17" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I7" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="K7" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7" s="18">
-        <v>9.0</v>
-      </c>
-      <c r="M7" s="11">
-        <v>44886.0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="C8" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="D8" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="E8" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="G8" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H8" s="13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="K8" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="L8" s="14">
+      <c r="B8" s="9">
         <v>9.8</v>
       </c>
-      <c r="M8" s="15">
+      <c r="C8" s="10">
         <v>44890.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="16"/>
-      <c r="B9" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="C9" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="D9" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="E9" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="F9" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="K9" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="L9" s="19"/>
-      <c r="M9" s="20"/>
+      <c r="A9" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="6">
+        <v>5.8</v>
+      </c>
+      <c r="C9" s="7">
+        <v>44963.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="10">
+        <v>44966.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="7">
+        <v>44967.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="10">
+        <v>44970.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="7">
+        <v>44972.0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:M9">
+  <conditionalFormatting sqref="A1:C13">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$A1 = "Multimèdia"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:M9">
+  <conditionalFormatting sqref="A1:C13">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>$A1 = "Acces a dades"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:M9">
+  <conditionalFormatting sqref="A1:C13">
     <cfRule type="expression" dxfId="2" priority="3">
       <formula>$A1 = "Sistemes de gestió"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:M9">
+  <conditionalFormatting sqref="A1:C13">
     <cfRule type="expression" dxfId="3" priority="4">
       <formula>$A1 = "Interfícies"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:M9">
+  <conditionalFormatting sqref="A1:C13">
     <cfRule type="expression" dxfId="4" priority="5">
       <formula>$A1 = "Servicis"</formula>
     </cfRule>
@@ -1053,63 +772,83 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>2</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="24">
+      <c r="A2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="14">
         <v>10.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="24">
+      <c r="A3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="14">
         <v>10.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="24">
+      <c r="A4" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="14">
         <v>6.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="23"/>
-      <c r="B5" s="25"/>
+      <c r="A5" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="14">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="14">
+        <v>6.43</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="14">
+        <v>8.9</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:B5">
+  <conditionalFormatting sqref="A1:B7">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$A1 = "Multimèdia"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:B5">
+  <conditionalFormatting sqref="A1:B7">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>$A1 = "Acces a dades"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:B5">
+  <conditionalFormatting sqref="A1:B7">
     <cfRule type="expression" dxfId="2" priority="3">
       <formula>$A1 = "Sistemes de gestió"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:B5">
+  <conditionalFormatting sqref="A1:B7">
     <cfRule type="expression" dxfId="3" priority="4">
       <formula>$A1 = "Interfícies"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:B5">
+  <conditionalFormatting sqref="A1:B7">
     <cfRule type="expression" dxfId="4" priority="5">
       <formula>$A1 = "Servicis"</formula>
     </cfRule>
@@ -1141,124 +880,124 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="26" t="s">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="C1" s="15"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="17" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5"/>
-      <c r="B2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="7"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="4"/>
     </row>
     <row r="3">
-      <c r="A3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="17" t="b">
+      <c r="A3" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="C3" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="D3" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" s="27">
+      <c r="C3" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="21">
         <v>9.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="13" t="b">
+      <c r="A4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="22" t="b">
         <v>1</v>
       </c>
-      <c r="C4" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" s="28">
+      <c r="C4" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="23">
         <v>9.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="17" t="b">
+      <c r="A5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="C5" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="D5" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5" s="29">
+      <c r="C5" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="D5" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="24">
         <v>9.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="13" t="b">
+      <c r="A6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="22" t="b">
         <v>1</v>
       </c>
-      <c r="C6" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="E6" s="28">
+      <c r="C6" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="D6" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="23">
         <v>8.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="17" t="b">
+      <c r="A7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="20" t="b">
         <v>1</v>
       </c>
-      <c r="C7" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="D7" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="E7" s="29">
+      <c r="C7" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="D7" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="24">
         <v>7.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="C8" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="D8" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="E8" s="30"/>
+      <c r="A8" s="8"/>
+      <c r="B8" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="C8" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" s="22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="3">
